--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NeehaarGandhi/Desktop/STAT-363/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{932CCE47-7160-1F40-9D16-9977879E2C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768CFD1-BF89-7A4F-A74B-10BCDDBD44E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{8E5E1190-3151-7143-9051-AD789A0B8279}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{8E5E1190-3151-7143-9051-AD789A0B8279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <name val="Droid Serif"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <name val="Droid Serif"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <name val="Droid Serif"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <name val="Droid Serif"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -239,6 +308,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C60DF4EF-A7D2-4E42-8E1E-9C3BE2559D94}" name="Table1" displayName="Table1" ref="A1:B49" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:B49" xr:uid="{083F4B5D-0190-E94A-BC7D-00A82F7874CB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BDD8EE39-39C6-4947-AC6B-933DF59BD5B9}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{11854461-687D-F342-9D0F-601880914854}" name="Type of predictor" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E17E1B8-668B-1540-94DD-EA54DE0B9DD1}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection sqref="A1:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -590,6 +670,7 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -616,7 +697,6 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
@@ -633,6 +713,7 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
@@ -641,7 +722,6 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
@@ -962,10 +1042,10 @@
     <row r="54" spans="1:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NeehaarGandhi/Desktop/STAT-363/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768CFD1-BF89-7A4F-A74B-10BCDDBD44E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB966320-458A-2B44-BB8F-AD01C9E55B85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{8E5E1190-3151-7143-9051-AD789A0B8279}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E17E1B8-668B-1540-94DD-EA54DE0B9DD1}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="83" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1028,18 +1028,23 @@
       </c>
     </row>
     <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
   </sheetData>
